--- a/4인조_트리플리_url정리_권마빈.xlsx
+++ b/4인조_트리플리_url정리_권마빈.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KHWorkSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D4ADB-2F20-4769-9678-17F0777CDC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0F343-35CD-4014-99A3-50C852203C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D4473CF-3012-43F7-BB10-0C3DD40FE402}"/>
   </bookViews>
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/trade/write.kh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/review/list.kh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -534,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/point/charge/result.kh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/point/checkSeller.kh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -591,6 +583,14 @@
   </si>
   <si>
     <t>loginUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/point/chargeView.kh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +979,10 @@
   <dimension ref="A3:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1040,7 +1040,7 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1090,7 +1090,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1104,7 +1104,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1198,10 +1198,10 @@
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
@@ -1247,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" t="s">
         <v>46</v>
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
@@ -1269,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>46</v>
@@ -1289,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
         <v>46</v>
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
@@ -1317,7 +1317,7 @@
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
@@ -1345,7 +1345,7 @@
         <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F41" t="s">
         <v>46</v>
@@ -1356,7 +1356,7 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
         <v>46</v>
@@ -1380,10 +1380,10 @@
         <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
         <v>46</v>
@@ -1402,10 +1402,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" t="s">
         <v>46</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
         <v>46</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
         <v>46</v>
@@ -1463,7 +1463,7 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" t="s">
         <v>47</v>
@@ -1485,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
         <v>47</v>
@@ -1505,7 +1505,7 @@
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
@@ -1516,7 +1516,7 @@
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>47</v>
@@ -1533,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
@@ -1569,7 +1569,7 @@
         <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
@@ -1593,10 +1593,10 @@
         <v>86</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
@@ -1607,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" t="s">
         <v>47</v>
@@ -1618,7 +1618,7 @@
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
@@ -1629,7 +1629,7 @@
         <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
         <v>47</v>
@@ -1651,13 +1651,13 @@
         <v>92</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
         <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -1665,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -1673,7 +1673,7 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -1690,13 +1690,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -1713,7 +1713,7 @@
         <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -1730,7 +1730,7 @@
         <v>55</v>
       </c>
       <c r="E78" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -1747,7 +1747,7 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H80" t="s">
         <v>69</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/4인조_트리플리_url정리_권마빈.xlsx
+++ b/4인조_트리플리_url정리_권마빈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KHWorkSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A0F343-35CD-4014-99A3-50C852203C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94481912-4279-40C9-BC9C-B2953026400D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D4473CF-3012-43F7-BB10-0C3DD40FE402}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9D4473CF-3012-43F7-BB10-0C3DD40FE402}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="138">
   <si>
     <t>화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,10 +311,6 @@
   </si>
   <si>
     <t>reviewList.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전송 시 바로 적용되는 것이아니라 받는 사람이 수락을 해야 적용되도록 하자.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,30 +975,30 @@
   <dimension ref="A3:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.19921875" customWidth="1"/>
-    <col min="5" max="5" width="31.09765625" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.8984375" customWidth="1"/>
-    <col min="8" max="8" width="70.59765625" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="31.125" customWidth="1"/>
+    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="70.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1011,19 +1007,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1040,43 +1036,43 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -1085,12 +1081,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1099,12 +1095,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
         <v>46</v>
@@ -1113,17 +1109,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>15</v>
       </c>
@@ -1131,27 +1127,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -1159,12 +1155,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -1173,67 +1169,67 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1247,40 +1243,40 @@
         <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -1289,46 +1285,46 @@
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D39" t="s">
         <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -1340,116 +1336,116 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>32</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
@@ -1463,40 +1459,40 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
@@ -1505,43 +1501,43 @@
         <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>30</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
@@ -1553,89 +1549,89 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>32</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>34</v>
       </c>
@@ -1643,45 +1639,45 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
         <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -1690,21 +1686,21 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -1713,15 +1709,15 @@
         <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -1730,15 +1726,15 @@
         <v>55</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -1747,18 +1743,15 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>129</v>
-      </c>
-      <c r="H80" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
